--- a/Tarea.xlsx
+++ b/Tarea.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\Tareas universidad\2do semestre\Ingenieria de requisitos\Ejercicio2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04ABBD73-016D-4200-83A9-27FFB36E2433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33501CA-5A4C-4A2C-A294-7C7B6A8BF67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A6E4644F-DC05-4C8D-B2FB-67FC8B7428D0}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="80">
   <si>
     <t>RQ001</t>
   </si>
@@ -234,9 +234,6 @@
     <t>El sistema debe permitir eliminar items del pedido preguntando al final de la compra si desea eliminar un producto</t>
   </si>
   <si>
-    <t>El sistema deberá calcular el precio total de compra después de agregar los ítems al pedido y calcular las vueltas</t>
-  </si>
-  <si>
     <t>El sistema debera tener una interfaz de usuario clara con colores, simbolos y opciones enumeradas</t>
   </si>
   <si>
@@ -265,6 +262,21 @@
   </si>
   <si>
     <t>Integridad de los datos</t>
+  </si>
+  <si>
+    <t>Mostar historial</t>
+  </si>
+  <si>
+    <t>El sistema deberia mostrar el historial de los pedidos realizados por dia</t>
+  </si>
+  <si>
+    <t>El sistema deberá calcular el precio total de compra después de agregar los ítems al pedido</t>
+  </si>
+  <si>
+    <t>Calcular las vueltas</t>
+  </si>
+  <si>
+    <t>El sitema debe calcular automaticamente las vueltas</t>
   </si>
 </sst>
 </file>
@@ -359,11 +371,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -373,6 +388,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -390,6 +408,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -708,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F99BD5E-4264-40C4-BB0D-8B404B1DD6BA}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -730,370 +754,382 @@
       <c r="C1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="D3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="D5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="D6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="C7" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="C8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="D9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="D10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="C11" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="C13" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" s="15" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="15" t="s">
+      <c r="B14" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="C14" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="9" t="s">
+      <c r="C15" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="C17" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="C18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="D19" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="B22" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
@@ -1101,10 +1137,10 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
@@ -1112,10 +1148,10 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
@@ -1123,10 +1159,10 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
@@ -1134,10 +1170,10 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
@@ -1145,10 +1181,10 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
@@ -1156,10 +1192,10 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
@@ -1167,10 +1203,10 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
@@ -1178,10 +1214,10 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
@@ -1189,10 +1225,10 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Tarea.xlsx
+++ b/Tarea.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\Tareas universidad\2do semestre\Ingenieria de requisitos\Ejercicio2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33501CA-5A4C-4A2C-A294-7C7B6A8BF67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DD3B72-0830-42C0-9B05-7C93F550DA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A6E4644F-DC05-4C8D-B2FB-67FC8B7428D0}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
   <si>
     <t>RQ001</t>
   </si>
@@ -277,6 +277,9 @@
   </si>
   <si>
     <t>El sitema debe calcular automaticamente las vueltas</t>
+  </si>
+  <si>
+    <t>No Funciona</t>
   </si>
 </sst>
 </file>
@@ -371,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -388,9 +391,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -410,10 +410,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -732,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F99BD5E-4264-40C4-BB0D-8B404B1DD6BA}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -765,13 +762,13 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E2" s="6"/>
@@ -788,7 +785,7 @@
       <c r="C3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="6"/>
@@ -805,7 +802,7 @@
       <c r="C4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E4" s="6"/>
@@ -822,7 +819,7 @@
       <c r="C5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="6"/>
@@ -833,13 +830,13 @@
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="10" t="s">
         <v>36</v>
       </c>
       <c r="E6" s="6"/>
@@ -850,13 +847,13 @@
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="6" t="s">
@@ -869,13 +866,13 @@
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>47</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="10" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="6"/>
@@ -886,13 +883,13 @@
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="10" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="6"/>
@@ -903,13 +900,13 @@
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="10" t="s">
         <v>36</v>
       </c>
       <c r="E10" s="6"/>
@@ -920,13 +917,13 @@
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>52</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="10" t="s">
         <v>36</v>
       </c>
       <c r="E11" s="6"/>
@@ -937,13 +934,13 @@
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E12" s="6"/>
@@ -954,47 +951,47 @@
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>40</v>
+      <c r="D13" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" s="15" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="14" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>58</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="6"/>
@@ -1005,13 +1002,13 @@
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E16" s="6"/>
@@ -1022,14 +1019,14 @@
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>59</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>36</v>
+      <c r="D17" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -1039,14 +1036,14 @@
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>60</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>36</v>
+      <c r="D18" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -1056,13 +1053,13 @@
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="12" t="s">
         <v>36</v>
       </c>
       <c r="E19" s="6"/>
@@ -1073,13 +1070,13 @@
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="10" t="s">
         <v>36</v>
       </c>
       <c r="E20" s="6"/>
@@ -1090,13 +1087,13 @@
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E21" s="6"/>
@@ -1107,13 +1104,13 @@
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="10" t="s">
         <v>36</v>
       </c>
       <c r="E22" s="6"/>
@@ -1124,9 +1121,9 @@
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
